--- a/Dataset/Second Dataset/022_preprocessing_after_normalizing_values.xlsx
+++ b/Dataset/Second Dataset/022_preprocessing_after_normalizing_values.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\video\Codes\Oil_weil_acidizing\Dataset\Second Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\company\python\Oil_well_acidizing\Dataset\Second Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -75,9 +75,6 @@
     <t>Initial Skin</t>
   </si>
   <si>
-    <t>Loss_Gain</t>
-  </si>
-  <si>
     <t>Carbonate_Sandstone</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Temperature Gradient (°F_ft)</t>
+  </si>
+  <si>
+    <t>Loss/Gain</t>
   </si>
 </sst>
 </file>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +489,6 @@
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -519,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -531,22 +530,22 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
@@ -561,13 +560,13 @@
         <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>13</v>
@@ -617,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -694,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -771,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -848,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -925,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1002,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1079,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1156,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1233,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1310,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1387,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1464,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M13">
         <v>0.5</v>
@@ -1541,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1618,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1695,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1772,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="L17">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1849,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M18">
         <v>0.375</v>
@@ -1926,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M19">
         <v>0.625</v>
@@ -2003,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M20">
         <v>0.5</v>
@@ -2080,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M21">
         <v>0.375</v>
@@ -2157,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M22">
         <v>0.5</v>
@@ -2234,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2311,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M24">
         <v>0.5</v>
@@ -2388,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2465,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M26">
         <v>0.375</v>
@@ -2542,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M27">
         <v>0.5</v>
@@ -2619,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M28">
         <v>0.5</v>
@@ -2696,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M29">
         <v>0.625</v>
@@ -2773,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2850,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M31">
         <v>0.625</v>
@@ -2927,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M32">
         <v>0.5</v>
@@ -3004,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -3081,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -3158,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -3235,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -3312,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3389,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -3466,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -3543,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="L40">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M40">
         <v>0.5</v>
@@ -3620,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M41">
         <v>0.375</v>
@@ -3697,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="L42">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3774,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M43">
         <v>0.625</v>
@@ -3851,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="L44">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M44">
         <v>0.625</v>
@@ -3928,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="L45">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M45">
         <v>0.875</v>
@@ -4005,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M46">
         <v>0.375</v>
@@ -4082,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="L47">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M47">
         <v>0.625</v>
@@ -4159,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="L48">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4236,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M49">
         <v>0.75</v>
@@ -4313,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="L50">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -4390,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -4467,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="L52">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M52">
         <v>0.5</v>
@@ -4544,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="L53">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M53">
         <v>0.375</v>
@@ -4621,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="L54">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -4698,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="L55">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M55">
         <v>0.75</v>
@@ -4775,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="L56">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M56">
         <v>0.375</v>
@@ -4852,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="L57">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -4929,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="L58">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <v>0.5</v>
@@ -5006,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="L59">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -5083,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M60">
         <v>0.5</v>
@@ -5160,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M61">
         <v>0.75</v>
@@ -5237,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M62">
         <v>0.5</v>
@@ -5314,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M63">
         <v>0.625</v>
@@ -5391,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -5468,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="L65">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M65">
         <v>0.5</v>
@@ -5545,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -5622,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -5699,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M68">
         <v>0.75</v>
@@ -5776,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M69">
         <v>0.5</v>
@@ -5853,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M70">
         <v>0.625</v>
@@ -5930,7 +5929,7 @@
         <v>1</v>
       </c>
       <c r="L71">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M71">
         <v>0.375</v>
@@ -6007,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M72">
         <v>0.625</v>
@@ -6084,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M73">
         <v>0.625</v>
@@ -6161,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M74">
         <v>0.5</v>
@@ -6238,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M75">
         <v>0.5</v>
@@ -6315,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M76">
         <v>0.75</v>
@@ -6392,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="L77">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M77">
         <v>0.5</v>
@@ -6469,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -6546,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M79">
         <v>0.625</v>
@@ -7008,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M85">
         <v>0.875</v>
@@ -7085,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M86">
         <v>0.75</v>
@@ -7162,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M87">
         <v>0.375</v>
@@ -7239,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="L88">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M88">
         <v>0.875</v>
@@ -7316,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M89">
         <v>0.5</v>
@@ -7393,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="L90">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M90">
         <v>0.75</v>
@@ -7470,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="L91">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M91">
         <v>1</v>
@@ -7547,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M92">
         <v>0.5</v>
@@ -7624,7 +7623,7 @@
         <v>1</v>
       </c>
       <c r="L93">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M93">
         <v>0.5</v>
@@ -7701,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -7778,7 +7777,7 @@
         <v>1</v>
       </c>
       <c r="L95">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M95">
         <v>0.5</v>
@@ -7855,7 +7854,7 @@
         <v>1</v>
       </c>
       <c r="L96">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M96">
         <v>0</v>
@@ -7932,7 +7931,7 @@
         <v>1</v>
       </c>
       <c r="L97">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M97">
         <v>0.5</v>
@@ -8009,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="L98">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M98">
         <v>0.625</v>
@@ -8086,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="L99">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -8163,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -8240,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -8317,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="L102">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -8394,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="L103">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M103">
         <v>0.375</v>
@@ -8471,7 +8470,7 @@
         <v>1</v>
       </c>
       <c r="L104">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M104">
         <v>0.5</v>
@@ -8548,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="L105">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M105">
         <v>0.75</v>
@@ -8625,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="L106">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M106">
         <v>1</v>
@@ -8702,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="L107">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M107">
         <v>0.625</v>
@@ -8779,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="L108">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M108">
         <v>0.5</v>
@@ -8856,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M109">
         <v>0.75</v>
@@ -8933,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L110">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -9010,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="L111">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -9087,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="L112">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M112">
         <v>0.375</v>
@@ -9164,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="L113">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -9241,7 +9240,7 @@
         <v>1</v>
       </c>
       <c r="L114">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M114">
         <v>0.375</v>
@@ -9318,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="L115">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -9395,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="L116">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -9472,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="L117">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -9549,7 +9548,7 @@
         <v>1</v>
       </c>
       <c r="L118">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M118">
         <v>0.5</v>
@@ -9626,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="L119">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M119">
         <v>0.75</v>
@@ -9703,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="L120">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -9780,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="L121">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M121">
         <v>0.5</v>
@@ -9857,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="L122">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M122">
         <v>0.375</v>
@@ -9934,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="L123">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -10011,7 +10010,7 @@
         <v>1</v>
       </c>
       <c r="L124">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -10088,7 +10087,7 @@
         <v>1</v>
       </c>
       <c r="L125">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -10165,7 +10164,7 @@
         <v>1</v>
       </c>
       <c r="L126">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -10242,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="L127">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M127">
         <v>0.5</v>
@@ -10319,7 +10318,7 @@
         <v>1</v>
       </c>
       <c r="L128">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -10396,7 +10395,7 @@
         <v>1</v>
       </c>
       <c r="L129">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M129">
         <v>0.625</v>
@@ -10473,7 +10472,7 @@
         <v>1</v>
       </c>
       <c r="L130">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M130">
         <v>0</v>
@@ -10550,7 +10549,7 @@
         <v>1</v>
       </c>
       <c r="L131">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -10627,7 +10626,7 @@
         <v>1</v>
       </c>
       <c r="L132">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -10704,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="L133">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M133">
         <v>0.5</v>
@@ -10781,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="L134">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M134">
         <v>0.5</v>
@@ -10858,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="L135">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M135">
         <v>0.375</v>
@@ -10935,7 +10934,7 @@
         <v>0</v>
       </c>
       <c r="L136">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M136">
         <v>0</v>
@@ -11012,7 +11011,7 @@
         <v>1</v>
       </c>
       <c r="L137">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M137">
         <v>0.375</v>
@@ -11089,7 +11088,7 @@
         <v>1</v>
       </c>
       <c r="L138">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M138">
         <v>0.375</v>
@@ -11166,7 +11165,7 @@
         <v>1</v>
       </c>
       <c r="L139">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M139">
         <v>0</v>
@@ -11243,7 +11242,7 @@
         <v>1</v>
       </c>
       <c r="L140">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M140">
         <v>0.5</v>
@@ -11320,7 +11319,7 @@
         <v>1</v>
       </c>
       <c r="L141">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -11397,7 +11396,7 @@
         <v>1</v>
       </c>
       <c r="L142">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M142">
         <v>0</v>
@@ -11474,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="L143">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M143">
         <v>0</v>
@@ -11551,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="L144">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M144">
         <v>0</v>
@@ -11628,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="L145">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M145">
         <v>0.5</v>
@@ -11705,7 +11704,7 @@
         <v>0</v>
       </c>
       <c r="L146">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M146">
         <v>0</v>
@@ -11782,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="L147">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M147">
         <v>0</v>
@@ -11859,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="L148">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M148">
         <v>0.375</v>
@@ -11936,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="L149">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M149">
         <v>0</v>
@@ -12013,7 +12012,7 @@
         <v>0</v>
       </c>
       <c r="L150">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M150">
         <v>0</v>
@@ -12090,7 +12089,7 @@
         <v>1</v>
       </c>
       <c r="L151">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M151">
         <v>0.5</v>
@@ -12167,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="L152">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M152">
         <v>0</v>
@@ -12244,7 +12243,7 @@
         <v>1</v>
       </c>
       <c r="L153">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M153">
         <v>0.75</v>
@@ -12321,7 +12320,7 @@
         <v>1</v>
       </c>
       <c r="L154">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M154">
         <v>0</v>
@@ -12398,7 +12397,7 @@
         <v>1</v>
       </c>
       <c r="L155">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M155">
         <v>0.625</v>
@@ -12475,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="L156">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M156">
         <v>0</v>
@@ -12552,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="L157">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M157">
         <v>0.375</v>
@@ -12629,7 +12628,7 @@
         <v>1</v>
       </c>
       <c r="L158">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M158">
         <v>0</v>
@@ -12706,7 +12705,7 @@
         <v>1</v>
       </c>
       <c r="L159">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M159">
         <v>0</v>
@@ -12783,7 +12782,7 @@
         <v>1</v>
       </c>
       <c r="L160">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M160">
         <v>0</v>
@@ -12860,7 +12859,7 @@
         <v>1</v>
       </c>
       <c r="L161">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M161">
         <v>0</v>
@@ -12937,7 +12936,7 @@
         <v>1</v>
       </c>
       <c r="L162">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M162">
         <v>0</v>
@@ -13014,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="L163">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M163">
         <v>0.75</v>
@@ -13091,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="L164">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M164">
         <v>0.75</v>
@@ -13168,7 +13167,7 @@
         <v>0</v>
       </c>
       <c r="L165">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -13245,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="L166">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M166">
         <v>0</v>
@@ -13322,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="L167">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M167">
         <v>0.625</v>
@@ -13399,7 +13398,7 @@
         <v>0</v>
       </c>
       <c r="L168">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M168">
         <v>0.5</v>
@@ -13476,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="L169">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M169">
         <v>0</v>
@@ -13553,7 +13552,7 @@
         <v>0</v>
       </c>
       <c r="L170">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M170">
         <v>0.75</v>
@@ -13630,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="L171">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M171">
         <v>0.5</v>
@@ -13707,7 +13706,7 @@
         <v>1</v>
       </c>
       <c r="L172">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M172">
         <v>0.5</v>
@@ -13784,7 +13783,7 @@
         <v>0</v>
       </c>
       <c r="L173">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M173">
         <v>0.375</v>
@@ -13861,7 +13860,7 @@
         <v>0</v>
       </c>
       <c r="L174">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M174">
         <v>0.625</v>
@@ -13938,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="L175">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M175">
         <v>0.625</v>
@@ -14015,7 +14014,7 @@
         <v>0</v>
       </c>
       <c r="L176">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M176">
         <v>0.375</v>
@@ -14092,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="L177">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M177">
         <v>0.5</v>
@@ -14169,7 +14168,7 @@
         <v>1</v>
       </c>
       <c r="L178">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M178">
         <v>0.625</v>
@@ -14246,7 +14245,7 @@
         <v>1</v>
       </c>
       <c r="L179">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M179">
         <v>0.625</v>
@@ -14323,7 +14322,7 @@
         <v>1</v>
       </c>
       <c r="L180">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M180">
         <v>0.375</v>
@@ -14400,7 +14399,7 @@
         <v>1</v>
       </c>
       <c r="L181">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M181">
         <v>0.375</v>
@@ -14477,7 +14476,7 @@
         <v>1</v>
       </c>
       <c r="L182">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M182">
         <v>0.75</v>
@@ -14554,7 +14553,7 @@
         <v>1</v>
       </c>
       <c r="L183">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M183">
         <v>0.5</v>
@@ -14631,7 +14630,7 @@
         <v>1</v>
       </c>
       <c r="L184">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M184">
         <v>0</v>
@@ -14708,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="L185">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M185">
         <v>0.5</v>
@@ -14785,7 +14784,7 @@
         <v>1</v>
       </c>
       <c r="L186">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M186">
         <v>0</v>
@@ -14862,7 +14861,7 @@
         <v>1</v>
       </c>
       <c r="L187">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M187">
         <v>1</v>
@@ -14939,7 +14938,7 @@
         <v>0</v>
       </c>
       <c r="L188">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M188">
         <v>0</v>
@@ -15016,7 +15015,7 @@
         <v>0</v>
       </c>
       <c r="L189">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M189">
         <v>0.875</v>
@@ -15093,7 +15092,7 @@
         <v>0</v>
       </c>
       <c r="L190">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M190">
         <v>0.375</v>
@@ -15170,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="L191">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M191">
         <v>0.75</v>
@@ -15247,7 +15246,7 @@
         <v>0</v>
       </c>
       <c r="L192">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M192">
         <v>0.75</v>
@@ -15324,7 +15323,7 @@
         <v>1</v>
       </c>
       <c r="L193">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M193">
         <v>0</v>
@@ -15401,7 +15400,7 @@
         <v>1</v>
       </c>
       <c r="L194">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M194">
         <v>0.375</v>
@@ -15478,7 +15477,7 @@
         <v>1</v>
       </c>
       <c r="L195">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M195">
         <v>0</v>
@@ -15555,7 +15554,7 @@
         <v>1</v>
       </c>
       <c r="L196">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M196">
         <v>0.5</v>
@@ -15632,7 +15631,7 @@
         <v>1</v>
       </c>
       <c r="L197">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M197">
         <v>0</v>
@@ -15709,7 +15708,7 @@
         <v>1</v>
       </c>
       <c r="L198">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M198">
         <v>0.875</v>
@@ -15786,7 +15785,7 @@
         <v>1</v>
       </c>
       <c r="L199">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M199">
         <v>0.5</v>
@@ -15863,7 +15862,7 @@
         <v>1</v>
       </c>
       <c r="L200">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M200">
         <v>0.5</v>
@@ -15940,7 +15939,7 @@
         <v>1</v>
       </c>
       <c r="L201">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M201">
         <v>0.375</v>
@@ -16017,7 +16016,7 @@
         <v>1</v>
       </c>
       <c r="L202">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M202">
         <v>0.75</v>
@@ -16094,7 +16093,7 @@
         <v>0</v>
       </c>
       <c r="L203">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M203">
         <v>0</v>
@@ -16171,7 +16170,7 @@
         <v>0</v>
       </c>
       <c r="L204">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M204">
         <v>0</v>
@@ -16248,7 +16247,7 @@
         <v>0</v>
       </c>
       <c r="L205">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M205">
         <v>0</v>
@@ -16325,7 +16324,7 @@
         <v>1</v>
       </c>
       <c r="L206">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M206">
         <v>0.5</v>
@@ -16402,7 +16401,7 @@
         <v>0</v>
       </c>
       <c r="L207">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M207">
         <v>0</v>
@@ -16479,7 +16478,7 @@
         <v>1</v>
       </c>
       <c r="L208">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M208">
         <v>0.75</v>
@@ -16556,7 +16555,7 @@
         <v>1</v>
       </c>
       <c r="L209">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M209">
         <v>1</v>
@@ -16633,7 +16632,7 @@
         <v>1</v>
       </c>
       <c r="L210">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M210">
         <v>0</v>
@@ -16710,7 +16709,7 @@
         <v>1</v>
       </c>
       <c r="L211">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M211">
         <v>0.375</v>
@@ -16787,7 +16786,7 @@
         <v>1</v>
       </c>
       <c r="L212">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M212">
         <v>0.625</v>
@@ -16864,7 +16863,7 @@
         <v>1</v>
       </c>
       <c r="L213">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M213">
         <v>0.375</v>
@@ -16941,7 +16940,7 @@
         <v>1</v>
       </c>
       <c r="L214">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M214">
         <v>0.5</v>
@@ -17018,7 +17017,7 @@
         <v>0</v>
       </c>
       <c r="L215">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M215">
         <v>0</v>
@@ -17095,7 +17094,7 @@
         <v>0</v>
       </c>
       <c r="L216">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M216">
         <v>0</v>
@@ -17172,7 +17171,7 @@
         <v>1</v>
       </c>
       <c r="L217">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M217">
         <v>0.5</v>
@@ -17249,7 +17248,7 @@
         <v>0</v>
       </c>
       <c r="L218">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M218">
         <v>0</v>
@@ -17326,7 +17325,7 @@
         <v>0</v>
       </c>
       <c r="L219">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M219">
         <v>0</v>
@@ -17403,7 +17402,7 @@
         <v>0</v>
       </c>
       <c r="L220">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M220">
         <v>0</v>
@@ -17480,7 +17479,7 @@
         <v>0</v>
       </c>
       <c r="L221">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M221">
         <v>0</v>
@@ -17557,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="L222">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M222">
         <v>0</v>
@@ -17634,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="L223">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M223">
         <v>0.375</v>
@@ -17711,7 +17710,7 @@
         <v>1</v>
       </c>
       <c r="L224">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M224">
         <v>0.5</v>
@@ -17788,7 +17787,7 @@
         <v>1</v>
       </c>
       <c r="L225">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M225">
         <v>0</v>
@@ -17865,7 +17864,7 @@
         <v>1</v>
       </c>
       <c r="L226">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M226">
         <v>0.5</v>
@@ -17942,7 +17941,7 @@
         <v>1</v>
       </c>
       <c r="L227">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M227">
         <v>0</v>
@@ -18019,7 +18018,7 @@
         <v>0</v>
       </c>
       <c r="L228">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M228">
         <v>0</v>
@@ -18096,7 +18095,7 @@
         <v>0</v>
       </c>
       <c r="L229">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M229">
         <v>0.5</v>
@@ -18173,7 +18172,7 @@
         <v>1</v>
       </c>
       <c r="L230">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M230">
         <v>0.375</v>
@@ -18250,7 +18249,7 @@
         <v>0</v>
       </c>
       <c r="L231">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M231">
         <v>0</v>
@@ -18327,7 +18326,7 @@
         <v>0</v>
       </c>
       <c r="L232">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M232">
         <v>0.75</v>
@@ -18404,7 +18403,7 @@
         <v>0</v>
       </c>
       <c r="L233">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M233">
         <v>0.875</v>
@@ -18481,7 +18480,7 @@
         <v>0</v>
       </c>
       <c r="L234">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M234">
         <v>0</v>
@@ -18558,7 +18557,7 @@
         <v>0</v>
       </c>
       <c r="L235">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M235">
         <v>0.625</v>
@@ -18635,7 +18634,7 @@
         <v>0</v>
       </c>
       <c r="L236">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M236">
         <v>0.75</v>
@@ -18712,7 +18711,7 @@
         <v>0</v>
       </c>
       <c r="L237">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M237">
         <v>0.5</v>
@@ -18789,7 +18788,7 @@
         <v>1</v>
       </c>
       <c r="L238">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M238">
         <v>0.375</v>
@@ -18866,7 +18865,7 @@
         <v>1</v>
       </c>
       <c r="L239">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M239">
         <v>0</v>
@@ -18943,7 +18942,7 @@
         <v>1</v>
       </c>
       <c r="L240">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M240">
         <v>0.375</v>
@@ -19020,7 +19019,7 @@
         <v>1</v>
       </c>
       <c r="L241">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M241">
         <v>0</v>
@@ -19097,7 +19096,7 @@
         <v>1</v>
       </c>
       <c r="L242">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M242">
         <v>0</v>
@@ -19174,7 +19173,7 @@
         <v>1</v>
       </c>
       <c r="L243">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M243">
         <v>0.625</v>
@@ -19251,7 +19250,7 @@
         <v>1</v>
       </c>
       <c r="L244">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M244">
         <v>0.625</v>
@@ -19328,7 +19327,7 @@
         <v>1</v>
       </c>
       <c r="L245">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M245">
         <v>0</v>
@@ -19405,7 +19404,7 @@
         <v>1</v>
       </c>
       <c r="L246">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M246">
         <v>0.625</v>
@@ -19482,7 +19481,7 @@
         <v>1</v>
       </c>
       <c r="L247">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M247">
         <v>0</v>
@@ -19559,7 +19558,7 @@
         <v>0</v>
       </c>
       <c r="L248">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M248">
         <v>0</v>
@@ -19636,7 +19635,7 @@
         <v>0</v>
       </c>
       <c r="L249">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M249">
         <v>0</v>
@@ -19713,7 +19712,7 @@
         <v>1</v>
       </c>
       <c r="L250">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M250">
         <v>0.5</v>
@@ -19790,7 +19789,7 @@
         <v>0</v>
       </c>
       <c r="L251">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M251">
         <v>0</v>
@@ -19867,7 +19866,7 @@
         <v>0</v>
       </c>
       <c r="L252">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M252">
         <v>0</v>
@@ -19944,7 +19943,7 @@
         <v>1</v>
       </c>
       <c r="L253">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M253">
         <v>0.75</v>
@@ -20021,7 +20020,7 @@
         <v>1</v>
       </c>
       <c r="L254">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M254">
         <v>0.75</v>
@@ -20098,7 +20097,7 @@
         <v>1</v>
       </c>
       <c r="L255">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M255">
         <v>0.5</v>
@@ -20175,7 +20174,7 @@
         <v>1</v>
       </c>
       <c r="L256">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M256">
         <v>0.5</v>
@@ -20252,7 +20251,7 @@
         <v>1</v>
       </c>
       <c r="L257">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M257">
         <v>1</v>
@@ -20329,7 +20328,7 @@
         <v>0</v>
       </c>
       <c r="L258">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M258">
         <v>0.75</v>
@@ -20406,7 +20405,7 @@
         <v>0</v>
       </c>
       <c r="L259">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M259">
         <v>0.5</v>
@@ -20483,7 +20482,7 @@
         <v>0</v>
       </c>
       <c r="L260">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M260">
         <v>0</v>
@@ -20560,7 +20559,7 @@
         <v>0</v>
       </c>
       <c r="L261">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M261">
         <v>0</v>
@@ -20637,7 +20636,7 @@
         <v>0</v>
       </c>
       <c r="L262">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M262">
         <v>0.5</v>
@@ -20714,7 +20713,7 @@
         <v>1</v>
       </c>
       <c r="L263">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M263">
         <v>0.75</v>
@@ -20791,7 +20790,7 @@
         <v>1</v>
       </c>
       <c r="L264">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M264">
         <v>0.375</v>
@@ -20868,7 +20867,7 @@
         <v>1</v>
       </c>
       <c r="L265">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M265">
         <v>0.75</v>
@@ -20945,7 +20944,7 @@
         <v>1</v>
       </c>
       <c r="L266">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M266">
         <v>0.625</v>
@@ -21022,7 +21021,7 @@
         <v>1</v>
       </c>
       <c r="L267">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M267">
         <v>0</v>
@@ -21099,7 +21098,7 @@
         <v>1</v>
       </c>
       <c r="L268">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M268">
         <v>0.5</v>
@@ -21176,7 +21175,7 @@
         <v>0</v>
       </c>
       <c r="L269">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M269">
         <v>0.5</v>
@@ -21253,7 +21252,7 @@
         <v>0</v>
       </c>
       <c r="L270">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M270">
         <v>0.5</v>
@@ -21330,7 +21329,7 @@
         <v>1</v>
       </c>
       <c r="L271">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M271">
         <v>0.375</v>
@@ -21407,7 +21406,7 @@
         <v>0</v>
       </c>
       <c r="L272">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M272">
         <v>0</v>
@@ -21484,7 +21483,7 @@
         <v>0</v>
       </c>
       <c r="L273">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M273">
         <v>0.75</v>
@@ -21561,7 +21560,7 @@
         <v>0</v>
       </c>
       <c r="L274">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M274">
         <v>0</v>
@@ -21638,7 +21637,7 @@
         <v>0</v>
       </c>
       <c r="L275">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M275">
         <v>0.5</v>
@@ -21715,7 +21714,7 @@
         <v>0</v>
       </c>
       <c r="L276">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M276">
         <v>0.625</v>
@@ -21792,7 +21791,7 @@
         <v>0</v>
       </c>
       <c r="L277">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M277">
         <v>0.5</v>
@@ -21869,7 +21868,7 @@
         <v>1</v>
       </c>
       <c r="L278">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M278">
         <v>0</v>
@@ -21946,7 +21945,7 @@
         <v>1</v>
       </c>
       <c r="L279">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M279">
         <v>0</v>
@@ -22023,7 +22022,7 @@
         <v>1</v>
       </c>
       <c r="L280">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M280">
         <v>0.5</v>
@@ -22100,7 +22099,7 @@
         <v>1</v>
       </c>
       <c r="L281">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M281">
         <v>0.5</v>
@@ -22177,7 +22176,7 @@
         <v>1</v>
       </c>
       <c r="L282">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M282">
         <v>0.625</v>
@@ -22254,7 +22253,7 @@
         <v>0</v>
       </c>
       <c r="L283">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M283">
         <v>0</v>
@@ -22331,7 +22330,7 @@
         <v>0</v>
       </c>
       <c r="L284">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M284">
         <v>0</v>
@@ -22408,7 +22407,7 @@
         <v>0</v>
       </c>
       <c r="L285">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M285">
         <v>0</v>
@@ -22485,7 +22484,7 @@
         <v>0</v>
       </c>
       <c r="L286">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M286">
         <v>0</v>
@@ -22562,7 +22561,7 @@
         <v>1</v>
       </c>
       <c r="L287">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M287">
         <v>0.375</v>
@@ -22639,7 +22638,7 @@
         <v>1</v>
       </c>
       <c r="L288">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M288">
         <v>0.75</v>
@@ -22716,7 +22715,7 @@
         <v>1</v>
       </c>
       <c r="L289">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M289">
         <v>0.5</v>
@@ -22793,7 +22792,7 @@
         <v>1</v>
       </c>
       <c r="L290">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M290">
         <v>0.5</v>
@@ -22870,7 +22869,7 @@
         <v>1</v>
       </c>
       <c r="L291">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M291">
         <v>1</v>
@@ -22947,7 +22946,7 @@
         <v>1</v>
       </c>
       <c r="L292">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M292">
         <v>0.75</v>
@@ -23024,7 +23023,7 @@
         <v>1</v>
       </c>
       <c r="L293">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M293">
         <v>0.375</v>
@@ -23101,7 +23100,7 @@
         <v>1</v>
       </c>
       <c r="L294">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M294">
         <v>0.625</v>
@@ -23178,7 +23177,7 @@
         <v>1</v>
       </c>
       <c r="L295">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M295">
         <v>0</v>
@@ -23255,7 +23254,7 @@
         <v>1</v>
       </c>
       <c r="L296">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M296">
         <v>0</v>
@@ -23332,7 +23331,7 @@
         <v>1</v>
       </c>
       <c r="L297">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M297">
         <v>0.625</v>
@@ -23409,7 +23408,7 @@
         <v>0</v>
       </c>
       <c r="L298">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M298">
         <v>0.875</v>
@@ -23486,7 +23485,7 @@
         <v>0</v>
       </c>
       <c r="L299">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M299">
         <v>0</v>
@@ -23563,7 +23562,7 @@
         <v>1</v>
       </c>
       <c r="L300">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M300">
         <v>0.5</v>
@@ -23640,7 +23639,7 @@
         <v>1</v>
       </c>
       <c r="L301">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M301">
         <v>0.5</v>
@@ -23717,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="L302">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M302">
         <v>0.625</v>
@@ -23794,7 +23793,7 @@
         <v>1</v>
       </c>
       <c r="L303">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M303">
         <v>0</v>
@@ -23871,7 +23870,7 @@
         <v>1</v>
       </c>
       <c r="L304">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M304">
         <v>0</v>
@@ -23948,7 +23947,7 @@
         <v>1</v>
       </c>
       <c r="L305">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M305">
         <v>0</v>
@@ -24025,7 +24024,7 @@
         <v>1</v>
       </c>
       <c r="L306">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M306">
         <v>0.5</v>
@@ -24102,7 +24101,7 @@
         <v>1</v>
       </c>
       <c r="L307">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M307">
         <v>0.375</v>
@@ -24179,7 +24178,7 @@
         <v>1</v>
       </c>
       <c r="L308">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M308">
         <v>0.375</v>
@@ -24256,7 +24255,7 @@
         <v>1</v>
       </c>
       <c r="L309">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M309">
         <v>0.375</v>
@@ -24333,7 +24332,7 @@
         <v>1</v>
       </c>
       <c r="L310">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M310">
         <v>0.875</v>
@@ -24410,7 +24409,7 @@
         <v>1</v>
       </c>
       <c r="L311">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M311">
         <v>0.5</v>
@@ -24487,7 +24486,7 @@
         <v>1</v>
       </c>
       <c r="L312">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M312">
         <v>0.625</v>
@@ -24564,7 +24563,7 @@
         <v>0</v>
       </c>
       <c r="L313">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M313">
         <v>0</v>
@@ -24641,7 +24640,7 @@
         <v>0</v>
       </c>
       <c r="L314">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M314">
         <v>0.375</v>
@@ -24718,7 +24717,7 @@
         <v>0</v>
       </c>
       <c r="L315">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M315">
         <v>0</v>
@@ -24795,7 +24794,7 @@
         <v>0</v>
       </c>
       <c r="L316">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M316">
         <v>0</v>
@@ -24872,7 +24871,7 @@
         <v>0</v>
       </c>
       <c r="L317">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M317">
         <v>0</v>
@@ -24949,7 +24948,7 @@
         <v>1</v>
       </c>
       <c r="L318">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M318">
         <v>0</v>
@@ -25026,7 +25025,7 @@
         <v>1</v>
       </c>
       <c r="L319">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M319">
         <v>0</v>
@@ -25103,7 +25102,7 @@
         <v>1</v>
       </c>
       <c r="L320">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M320">
         <v>0</v>
@@ -25180,7 +25179,7 @@
         <v>1</v>
       </c>
       <c r="L321">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M321">
         <v>0</v>
@@ -25257,7 +25256,7 @@
         <v>1</v>
       </c>
       <c r="L322">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M322">
         <v>0</v>
@@ -25334,7 +25333,7 @@
         <v>1</v>
       </c>
       <c r="L323">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M323">
         <v>0</v>
@@ -25411,7 +25410,7 @@
         <v>1</v>
       </c>
       <c r="L324">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M324">
         <v>0.5</v>
@@ -25488,7 +25487,7 @@
         <v>1</v>
       </c>
       <c r="L325">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M325">
         <v>0.5</v>
@@ -25565,7 +25564,7 @@
         <v>1</v>
       </c>
       <c r="L326">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M326">
         <v>0.5</v>
@@ -25642,7 +25641,7 @@
         <v>1</v>
       </c>
       <c r="L327">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M327">
         <v>0.75</v>
@@ -26104,7 +26103,7 @@
         <v>0</v>
       </c>
       <c r="L333">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M333">
         <v>0</v>
@@ -26181,7 +26180,7 @@
         <v>0</v>
       </c>
       <c r="L334">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M334">
         <v>0</v>
@@ -26258,7 +26257,7 @@
         <v>0</v>
       </c>
       <c r="L335">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M335">
         <v>0</v>
@@ -26335,7 +26334,7 @@
         <v>0</v>
       </c>
       <c r="L336">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M336">
         <v>0</v>
@@ -26412,7 +26411,7 @@
         <v>0</v>
       </c>
       <c r="L337">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M337">
         <v>0</v>
@@ -26489,7 +26488,7 @@
         <v>1</v>
       </c>
       <c r="L338">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M338">
         <v>0.625</v>
@@ -26566,7 +26565,7 @@
         <v>1</v>
       </c>
       <c r="L339">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M339">
         <v>0.5</v>
@@ -26643,7 +26642,7 @@
         <v>1</v>
       </c>
       <c r="L340">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M340">
         <v>0</v>
@@ -26720,7 +26719,7 @@
         <v>1</v>
       </c>
       <c r="L341">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M341">
         <v>1</v>
@@ -26797,7 +26796,7 @@
         <v>1</v>
       </c>
       <c r="L342">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M342">
         <v>0.625</v>
@@ -26874,7 +26873,7 @@
         <v>0</v>
       </c>
       <c r="L343">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M343">
         <v>0.625</v>
@@ -26951,7 +26950,7 @@
         <v>0</v>
       </c>
       <c r="L344">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M344">
         <v>0.625</v>
@@ -27028,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="L345">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M345">
         <v>0.75</v>
@@ -27105,7 +27104,7 @@
         <v>0</v>
       </c>
       <c r="L346">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M346">
         <v>0.75</v>
@@ -27182,7 +27181,7 @@
         <v>0</v>
       </c>
       <c r="L347">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M347">
         <v>0.5</v>
@@ -27259,7 +27258,7 @@
         <v>0</v>
       </c>
       <c r="L348">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M348">
         <v>0</v>
@@ -27336,7 +27335,7 @@
         <v>1</v>
       </c>
       <c r="L349">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M349">
         <v>0.5</v>
@@ -27413,7 +27412,7 @@
         <v>0</v>
       </c>
       <c r="L350">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M350">
         <v>1</v>
@@ -27490,7 +27489,7 @@
         <v>0</v>
       </c>
       <c r="L351">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M351">
         <v>0.625</v>
@@ -27567,7 +27566,7 @@
         <v>0</v>
       </c>
       <c r="L352">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M352">
         <v>0.75</v>
@@ -27644,7 +27643,7 @@
         <v>1</v>
       </c>
       <c r="L353">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M353">
         <v>0.5</v>
@@ -27721,7 +27720,7 @@
         <v>0</v>
       </c>
       <c r="L354">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M354">
         <v>0</v>
@@ -27798,7 +27797,7 @@
         <v>0</v>
       </c>
       <c r="L355">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M355">
         <v>0</v>
@@ -27875,7 +27874,7 @@
         <v>0</v>
       </c>
       <c r="L356">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M356">
         <v>0</v>
@@ -27952,7 +27951,7 @@
         <v>0</v>
       </c>
       <c r="L357">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M357">
         <v>0</v>
@@ -28029,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="L358">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M358">
         <v>0.75</v>
@@ -28106,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="L359">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M359">
         <v>0</v>
@@ -28183,7 +28182,7 @@
         <v>0</v>
       </c>
       <c r="L360">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M360">
         <v>0.625</v>
@@ -28260,7 +28259,7 @@
         <v>0</v>
       </c>
       <c r="L361">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M361">
         <v>0.5</v>
@@ -28337,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="L362">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M362">
         <v>0.5</v>
@@ -28414,7 +28413,7 @@
         <v>0</v>
       </c>
       <c r="L363">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M363">
         <v>0</v>
@@ -28491,7 +28490,7 @@
         <v>0</v>
       </c>
       <c r="L364">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M364">
         <v>0</v>
@@ -28568,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="L365">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M365">
         <v>0.875</v>
@@ -28645,7 +28644,7 @@
         <v>0</v>
       </c>
       <c r="L366">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M366">
         <v>0.625</v>
@@ -28722,7 +28721,7 @@
         <v>0</v>
       </c>
       <c r="L367">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M367">
         <v>1</v>
@@ -28799,7 +28798,7 @@
         <v>1</v>
       </c>
       <c r="L368">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M368">
         <v>0</v>
@@ -28876,7 +28875,7 @@
         <v>1</v>
       </c>
       <c r="L369">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M369">
         <v>0.5</v>
@@ -28953,7 +28952,7 @@
         <v>1</v>
       </c>
       <c r="L370">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M370">
         <v>0</v>
@@ -29030,7 +29029,7 @@
         <v>1</v>
       </c>
       <c r="L371">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M371">
         <v>0</v>
@@ -29107,7 +29106,7 @@
         <v>1</v>
       </c>
       <c r="L372">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M372">
         <v>0.375</v>
@@ -29184,7 +29183,7 @@
         <v>1</v>
       </c>
       <c r="L373">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M373">
         <v>0</v>
@@ -29261,7 +29260,7 @@
         <v>1</v>
       </c>
       <c r="L374">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M374">
         <v>0</v>
@@ -29338,7 +29337,7 @@
         <v>1</v>
       </c>
       <c r="L375">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M375">
         <v>0</v>
@@ -29415,7 +29414,7 @@
         <v>1</v>
       </c>
       <c r="L376">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M376">
         <v>0</v>
@@ -29492,7 +29491,7 @@
         <v>1</v>
       </c>
       <c r="L377">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M377">
         <v>0.5</v>
@@ -29569,7 +29568,7 @@
         <v>1</v>
       </c>
       <c r="L378">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M378">
         <v>0.5</v>
@@ -29646,7 +29645,7 @@
         <v>1</v>
       </c>
       <c r="L379">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M379">
         <v>0</v>
@@ -29723,7 +29722,7 @@
         <v>1</v>
       </c>
       <c r="L380">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M380">
         <v>0.5</v>
@@ -29800,7 +29799,7 @@
         <v>1</v>
       </c>
       <c r="L381">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M381">
         <v>0.625</v>
@@ -29877,7 +29876,7 @@
         <v>1</v>
       </c>
       <c r="L382">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M382">
         <v>0</v>
@@ -29954,7 +29953,7 @@
         <v>1</v>
       </c>
       <c r="L383">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M383">
         <v>0</v>
@@ -30031,7 +30030,7 @@
         <v>1</v>
       </c>
       <c r="L384">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M384">
         <v>0.625</v>
@@ -30108,7 +30107,7 @@
         <v>1</v>
       </c>
       <c r="L385">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M385">
         <v>1</v>
@@ -30185,7 +30184,7 @@
         <v>1</v>
       </c>
       <c r="L386">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M386">
         <v>0.375</v>
@@ -30262,7 +30261,7 @@
         <v>1</v>
       </c>
       <c r="L387">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M387">
         <v>0</v>
@@ -30339,7 +30338,7 @@
         <v>0</v>
       </c>
       <c r="L388">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M388">
         <v>0.5</v>
@@ -30416,7 +30415,7 @@
         <v>0</v>
       </c>
       <c r="L389">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M389">
         <v>1</v>
@@ -30493,7 +30492,7 @@
         <v>0</v>
       </c>
       <c r="L390">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M390">
         <v>0.75</v>
@@ -30570,7 +30569,7 @@
         <v>0</v>
       </c>
       <c r="L391">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M391">
         <v>0.875</v>
@@ -30647,7 +30646,7 @@
         <v>0</v>
       </c>
       <c r="L392">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M392">
         <v>0.625</v>
@@ -30724,7 +30723,7 @@
         <v>0</v>
       </c>
       <c r="L393">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M393">
         <v>0.75</v>
@@ -30801,7 +30800,7 @@
         <v>0</v>
       </c>
       <c r="L394">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M394">
         <v>0</v>
@@ -30878,7 +30877,7 @@
         <v>0</v>
       </c>
       <c r="L395">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M395">
         <v>0.375</v>
@@ -30955,7 +30954,7 @@
         <v>0</v>
       </c>
       <c r="L396">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M396">
         <v>0</v>
@@ -31032,7 +31031,7 @@
         <v>1</v>
       </c>
       <c r="L397">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M397">
         <v>0.375</v>
@@ -31109,7 +31108,7 @@
         <v>0</v>
       </c>
       <c r="L398">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M398">
         <v>0</v>
@@ -31186,7 +31185,7 @@
         <v>1</v>
       </c>
       <c r="L399">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M399">
         <v>0.375</v>
@@ -31263,7 +31262,7 @@
         <v>1</v>
       </c>
       <c r="L400">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M400">
         <v>0.375</v>
@@ -31340,7 +31339,7 @@
         <v>1</v>
       </c>
       <c r="L401">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M401">
         <v>0.5</v>
@@ -31417,7 +31416,7 @@
         <v>1</v>
       </c>
       <c r="L402">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M402">
         <v>0.5</v>
@@ -31494,7 +31493,7 @@
         <v>1</v>
       </c>
       <c r="L403">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M403">
         <v>0.375</v>
@@ -31571,7 +31570,7 @@
         <v>0</v>
       </c>
       <c r="L404">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M404">
         <v>0.5</v>
@@ -31648,7 +31647,7 @@
         <v>1</v>
       </c>
       <c r="L405">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M405">
         <v>0.5</v>
@@ -31725,7 +31724,7 @@
         <v>0</v>
       </c>
       <c r="L406">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M406">
         <v>0</v>
@@ -31802,7 +31801,7 @@
         <v>0</v>
       </c>
       <c r="L407">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M407">
         <v>0.625</v>
@@ -32264,7 +32263,7 @@
         <v>1</v>
       </c>
       <c r="L413">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M413">
         <v>0.375</v>
@@ -32341,7 +32340,7 @@
         <v>0</v>
       </c>
       <c r="L414">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M414">
         <v>0</v>
@@ -32418,7 +32417,7 @@
         <v>0</v>
       </c>
       <c r="L415">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M415">
         <v>0</v>
@@ -32495,7 +32494,7 @@
         <v>1</v>
       </c>
       <c r="L416">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M416">
         <v>0.375</v>
@@ -32572,7 +32571,7 @@
         <v>0</v>
       </c>
       <c r="L417">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M417">
         <v>0</v>
@@ -32649,7 +32648,7 @@
         <v>0</v>
       </c>
       <c r="L418">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M418">
         <v>0.875</v>
@@ -32726,7 +32725,7 @@
         <v>0</v>
       </c>
       <c r="L419">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M419">
         <v>0.375</v>
@@ -32803,7 +32802,7 @@
         <v>0</v>
       </c>
       <c r="L420">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M420">
         <v>0</v>
@@ -32880,7 +32879,7 @@
         <v>1</v>
       </c>
       <c r="L421">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M421">
         <v>0.375</v>
@@ -32957,7 +32956,7 @@
         <v>0</v>
       </c>
       <c r="L422">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M422">
         <v>0</v>
@@ -33034,7 +33033,7 @@
         <v>0</v>
       </c>
       <c r="L423">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M423">
         <v>0</v>
@@ -33111,7 +33110,7 @@
         <v>0</v>
       </c>
       <c r="L424">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M424">
         <v>0</v>
@@ -33188,7 +33187,7 @@
         <v>0</v>
       </c>
       <c r="L425">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M425">
         <v>0</v>
@@ -33265,7 +33264,7 @@
         <v>0</v>
       </c>
       <c r="L426">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M426">
         <v>0</v>
@@ -33342,7 +33341,7 @@
         <v>0</v>
       </c>
       <c r="L427">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M427">
         <v>0</v>
@@ -33419,7 +33418,7 @@
         <v>1</v>
       </c>
       <c r="L428">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M428">
         <v>0.625</v>
@@ -33496,7 +33495,7 @@
         <v>1</v>
       </c>
       <c r="L429">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M429">
         <v>0</v>
@@ -33573,7 +33572,7 @@
         <v>1</v>
       </c>
       <c r="L430">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M430">
         <v>0</v>
@@ -33650,7 +33649,7 @@
         <v>1</v>
       </c>
       <c r="L431">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M431">
         <v>0.5</v>
@@ -33727,7 +33726,7 @@
         <v>1</v>
       </c>
       <c r="L432">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M432">
         <v>0</v>
@@ -33804,7 +33803,7 @@
         <v>1</v>
       </c>
       <c r="L433">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M433">
         <v>0.375</v>
@@ -33881,7 +33880,7 @@
         <v>1</v>
       </c>
       <c r="L434">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M434">
         <v>0.625</v>
@@ -33958,7 +33957,7 @@
         <v>1</v>
       </c>
       <c r="L435">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M435">
         <v>0.625</v>
@@ -34035,7 +34034,7 @@
         <v>1</v>
       </c>
       <c r="L436">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M436">
         <v>0</v>
@@ -34112,7 +34111,7 @@
         <v>1</v>
       </c>
       <c r="L437">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M437">
         <v>1</v>
@@ -34189,7 +34188,7 @@
         <v>1</v>
       </c>
       <c r="L438">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M438">
         <v>0</v>
@@ -34266,7 +34265,7 @@
         <v>1</v>
       </c>
       <c r="L439">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M439">
         <v>0</v>
@@ -34343,7 +34342,7 @@
         <v>1</v>
       </c>
       <c r="L440">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M440">
         <v>0.75</v>
@@ -34420,7 +34419,7 @@
         <v>1</v>
       </c>
       <c r="L441">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M441">
         <v>0.5</v>
@@ -34497,7 +34496,7 @@
         <v>1</v>
       </c>
       <c r="L442">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M442">
         <v>0</v>
@@ -34574,7 +34573,7 @@
         <v>1</v>
       </c>
       <c r="L443">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M443">
         <v>0.375</v>
@@ -34651,7 +34650,7 @@
         <v>1</v>
       </c>
       <c r="L444">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M444">
         <v>0.375</v>
@@ -34728,7 +34727,7 @@
         <v>0</v>
       </c>
       <c r="L445">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M445">
         <v>0.75</v>
@@ -34805,7 +34804,7 @@
         <v>1</v>
       </c>
       <c r="L446">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M446">
         <v>0.375</v>
@@ -34882,7 +34881,7 @@
         <v>0</v>
       </c>
       <c r="L447">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
       <c r="M447">
         <v>0</v>
@@ -34959,7 +34958,7 @@
         <v>1</v>
       </c>
       <c r="L448">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M448">
         <v>0</v>
@@ -35036,7 +35035,7 @@
         <v>1</v>
       </c>
       <c r="L449">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M449">
         <v>0</v>
@@ -35113,7 +35112,7 @@
         <v>1</v>
       </c>
       <c r="L450">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M450">
         <v>0.375</v>
@@ -35190,7 +35189,7 @@
         <v>1</v>
       </c>
       <c r="L451">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M451">
         <v>0</v>
@@ -35267,7 +35266,7 @@
         <v>1</v>
       </c>
       <c r="L452">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M452">
         <v>0</v>
@@ -35344,7 +35343,7 @@
         <v>1</v>
       </c>
       <c r="L453">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M453">
         <v>0.75</v>
@@ -35421,7 +35420,7 @@
         <v>1</v>
       </c>
       <c r="L454">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M454">
         <v>0</v>
@@ -35498,7 +35497,7 @@
         <v>1</v>
       </c>
       <c r="L455">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M455">
         <v>0.5</v>
@@ -35575,7 +35574,7 @@
         <v>1</v>
       </c>
       <c r="L456">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M456">
         <v>0.625</v>
@@ -35652,7 +35651,7 @@
         <v>1</v>
       </c>
       <c r="L457">
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="M457">
         <v>0</v>
@@ -36114,7 +36113,7 @@
         <v>1</v>
       </c>
       <c r="L463">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M463">
         <v>0.625</v>
@@ -36191,7 +36190,7 @@
         <v>1</v>
       </c>
       <c r="L464">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M464">
         <v>0.375</v>
@@ -36268,7 +36267,7 @@
         <v>1</v>
       </c>
       <c r="L465">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M465">
         <v>0.625</v>
@@ -36345,7 +36344,7 @@
         <v>1</v>
       </c>
       <c r="L466">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M466">
         <v>0.875</v>
@@ -36422,7 +36421,7 @@
         <v>1</v>
       </c>
       <c r="L467">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M467">
         <v>0</v>
@@ -36499,7 +36498,7 @@
         <v>0</v>
       </c>
       <c r="L468">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M468">
         <v>0</v>
@@ -36576,7 +36575,7 @@
         <v>1</v>
       </c>
       <c r="L469">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M469">
         <v>0.5</v>
@@ -36653,7 +36652,7 @@
         <v>0</v>
       </c>
       <c r="L470">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M470">
         <v>0</v>
@@ -36730,7 +36729,7 @@
         <v>0</v>
       </c>
       <c r="L471">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M471">
         <v>0</v>
@@ -36807,7 +36806,7 @@
         <v>1</v>
       </c>
       <c r="L472">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M472">
         <v>0.5</v>
@@ -36884,7 +36883,7 @@
         <v>1</v>
       </c>
       <c r="L473">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M473">
         <v>0</v>
@@ -36961,7 +36960,7 @@
         <v>1</v>
       </c>
       <c r="L474">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M474">
         <v>0</v>
@@ -37038,7 +37037,7 @@
         <v>1</v>
       </c>
       <c r="L475">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M475">
         <v>0</v>
@@ -37115,7 +37114,7 @@
         <v>1</v>
       </c>
       <c r="L476">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M476">
         <v>0.375</v>
@@ -37192,7 +37191,7 @@
         <v>1</v>
       </c>
       <c r="L477">
-        <v>0.71428571428571419</v>
+        <v>5</v>
       </c>
       <c r="M477">
         <v>0</v>
@@ -37269,7 +37268,7 @@
         <v>1</v>
       </c>
       <c r="L478">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M478">
         <v>0</v>
@@ -37346,7 +37345,7 @@
         <v>1</v>
       </c>
       <c r="L479">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M479">
         <v>0</v>
@@ -37423,7 +37422,7 @@
         <v>1</v>
       </c>
       <c r="L480">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M480">
         <v>0</v>
@@ -37500,7 +37499,7 @@
         <v>1</v>
       </c>
       <c r="L481">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M481">
         <v>0</v>
@@ -37577,7 +37576,7 @@
         <v>1</v>
       </c>
       <c r="L482">
-        <v>0.14285714285714279</v>
+        <v>1</v>
       </c>
       <c r="M482">
         <v>0.375</v>
@@ -37654,7 +37653,7 @@
         <v>1</v>
       </c>
       <c r="L483">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M483">
         <v>0</v>
@@ -37731,7 +37730,7 @@
         <v>1</v>
       </c>
       <c r="L484">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M484">
         <v>0.625</v>
@@ -37808,7 +37807,7 @@
         <v>1</v>
       </c>
       <c r="L485">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M485">
         <v>0.5</v>
@@ -37885,7 +37884,7 @@
         <v>1</v>
       </c>
       <c r="L486">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M486">
         <v>0.75</v>
@@ -37962,7 +37961,7 @@
         <v>1</v>
       </c>
       <c r="L487">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M487">
         <v>0</v>
@@ -38039,7 +38038,7 @@
         <v>1</v>
       </c>
       <c r="L488">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M488">
         <v>1</v>
@@ -38116,7 +38115,7 @@
         <v>1</v>
       </c>
       <c r="L489">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M489">
         <v>0.5</v>
@@ -38193,7 +38192,7 @@
         <v>1</v>
       </c>
       <c r="L490">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M490">
         <v>1</v>
@@ -38270,7 +38269,7 @@
         <v>1</v>
       </c>
       <c r="L491">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M491">
         <v>0.375</v>
@@ -38347,7 +38346,7 @@
         <v>1</v>
       </c>
       <c r="L492">
-        <v>0.42857142857142849</v>
+        <v>3</v>
       </c>
       <c r="M492">
         <v>0.625</v>
@@ -38424,7 +38423,7 @@
         <v>0</v>
       </c>
       <c r="L493">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M493">
         <v>0.875</v>
@@ -38501,7 +38500,7 @@
         <v>0</v>
       </c>
       <c r="L494">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M494">
         <v>0.625</v>
@@ -38578,7 +38577,7 @@
         <v>0</v>
       </c>
       <c r="L495">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M495">
         <v>0</v>
@@ -38655,7 +38654,7 @@
         <v>0</v>
       </c>
       <c r="L496">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M496">
         <v>0.5</v>
@@ -38732,7 +38731,7 @@
         <v>0</v>
       </c>
       <c r="L497">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
       <c r="M497">
         <v>0</v>
